--- a/OD1.xlsx
+++ b/OD1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ETH" sheetId="1" state="visible" r:id="rId3"/>
@@ -30,220 +30,220 @@
     <t xml:space="preserve">OD (600 nm)</t>
   </si>
   <si>
-    <t xml:space="preserve">ETH10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLU37</t>
+    <t xml:space="preserve">ETHKWK10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHKWK37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALKWK37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUKWK37</t>
   </si>
 </sst>
 </file>
@@ -253,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +275,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -319,20 +325,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -574,598 +584,598 @@
   </sheetPr>
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+      <selection pane="bottomLeft" activeCell="F65" activeCellId="0" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="3" t="n">
         <v>0.13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="3" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="3" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="3" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="3" t="n">
         <v>0.21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="3" t="n">
         <v>0.24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="3" t="n">
         <v>0.32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="3" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="3" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="3" t="n">
         <v>0.17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="3" t="n">
         <v>0.19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="3" t="n">
         <v>0.22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="3" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="3" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="3" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="3" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="3" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="3" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="3" t="n">
         <v>0.23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="3" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="3" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="3" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="3" t="n">
         <v>0.17</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="3" t="n">
         <v>0.22</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="3" t="n">
         <v>0.28</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="3" t="n">
         <v>0.34</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="3" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="3" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="3" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="3" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="3" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="3" t="n">
         <v>0.27</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="3" t="n">
         <v>0.33</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="3" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="3" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="3" t="n">
         <v>0.09</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="3" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="3" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="3" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="3" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="3" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="3" t="n">
         <v>0.32</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="3" t="n">
         <v>0.13</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="3" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="3" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="3" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="3" t="n">
         <v>0.21</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="3" t="n">
         <v>0.24</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="3" t="n">
         <v>0.32</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="3" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="3" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="3" t="n">
         <v>0.17</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="3" t="n">
         <v>0.19</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="3" t="n">
         <v>0.22</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="3" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="3" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="3" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="3" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="3" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="B71" s="3" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="B72" s="3" t="n">
         <v>0.23</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="1" t="n">
+      <c r="B73" s="3" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1191,597 +1201,597 @@
   <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
+      <selection pane="bottomLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="3" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="3" t="n">
         <v>0.17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="3" t="n">
         <v>0.27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="3" t="n">
         <v>0.44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="3" t="n">
         <v>0.68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="3" t="n">
         <v>0.92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="3" t="n">
         <v>1.55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="3" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="3" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="3" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="3" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="3" t="n">
         <v>0.88</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="3" t="n">
         <v>1.3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="3" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="3" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="3" t="n">
         <v>0.26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="3" t="n">
         <v>0.44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="3" t="n">
         <v>0.68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="3" t="n">
         <v>1.04</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="3" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="3" t="n">
         <v>0.13</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="3" t="n">
         <v>0.19</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="3" t="n">
         <v>0.24</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="3" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="3" t="n">
         <v>0.52</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="3" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="3" t="n">
         <v>1.45</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="3" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="3" t="n">
         <v>0.21</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="3" t="n">
         <v>0.28</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="3" t="n">
         <v>0.42</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="3" t="n">
         <v>0.54</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="3" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="3" t="n">
         <v>1.08</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="3" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="3" t="n">
         <v>0.09</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="3" t="n">
         <v>0.13</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="3" t="n">
         <v>0.19</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="3" t="n">
         <v>0.28</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="3" t="n">
         <v>0.38</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="3" t="n">
         <v>0.56</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="3" t="n">
         <v>0.76</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="3" t="n">
         <v>0.92</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="3" t="n">
         <v>0.13</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="3" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="3" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="3" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="3" t="n">
         <v>0.48</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="3" t="n">
         <v>0.72</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="3" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="3" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="3" t="n">
         <v>0.26</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="3" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="3" t="n">
         <v>0.48</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="3" t="n">
         <v>0.68</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="3" t="n">
         <v>0.88</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="3" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="3" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="3" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="3" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="B71" s="3" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="B72" s="3" t="n">
         <v>0.72</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B73" s="1" t="n">
+      <c r="B73" s="3" t="n">
         <v>1.04</v>
       </c>
     </row>
@@ -1806,589 +1816,589 @@
   </sheetPr>
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E62" activeCellId="0" sqref="E62"/>
+      <selection pane="bottomLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="3" t="n">
         <v>0.13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="3" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="3" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="3" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="3" t="n">
         <v>0.48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="3" t="n">
         <v>0.72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="3" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="3" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="3" t="n">
         <v>0.26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="3" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="3" t="n">
         <v>0.48</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="3" t="n">
         <v>0.68</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="3" t="n">
         <v>0.88</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="3" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="3" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="3" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="3" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="3" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="3" t="n">
         <v>0.72</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="3" t="n">
         <v>1.04</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="3" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="3" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="3" t="n">
         <v>0.32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="3" t="n">
         <v>0.54</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="3" t="n">
         <v>0.88</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="3" t="n">
         <v>1.28</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="3" t="n">
         <v>1.92</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="3" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="3" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="3" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="3" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="3" t="n">
         <v>0.64</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="3" t="n">
         <v>0.88</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="3" t="n">
         <v>1.36</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="3" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="3" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="3" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="3" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="3" t="n">
         <v>0.76</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="3" t="n">
         <v>1.16</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="3" t="n">
         <v>1.68</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="1" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="1" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="1" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="1" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="1" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="1" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="1" t="n">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="1" t="n">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="1" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="1" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="1" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="1" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="1" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="1" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="1" t="n">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="1" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="1" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="1" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="1" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="1" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="1" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="1" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" s="1" t="n">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" s="1" t="n">
+      <c r="B73" s="3" t="n">
         <v>1.5</v>
       </c>
     </row>

--- a/OD1.xlsx
+++ b/OD1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ETH" sheetId="1" state="visible" r:id="rId3"/>
@@ -253,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,12 +275,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -325,24 +319,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -584,598 +574,598 @@
   </sheetPr>
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F65" activeCellId="0" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="1" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="1" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="1" t="n">
         <v>0.21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="1" t="n">
         <v>0.24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="1" t="n">
         <v>0.32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="1" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="1" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="1" t="n">
         <v>0.17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="1" t="n">
         <v>0.19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="1" t="n">
         <v>0.22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="1" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="1" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="1" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="1" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="1" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="1" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="1" t="n">
         <v>0.23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="1" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="1" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="1" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="1" t="n">
         <v>0.17</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="1" t="n">
         <v>0.22</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="1" t="n">
         <v>0.28</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="1" t="n">
         <v>0.34</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="1" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="1" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="1" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="1" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="1" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="1" t="n">
         <v>0.27</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="1" t="n">
         <v>0.33</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="1" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="1" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="1" t="n">
         <v>0.09</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="1" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="1" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="1" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="1" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="1" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="1" t="n">
         <v>0.32</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="1" t="n">
         <v>0.13</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="1" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="1" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="1" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="1" t="n">
         <v>0.21</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="1" t="n">
         <v>0.24</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="1" t="n">
         <v>0.32</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="1" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="1" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="1" t="n">
         <v>0.17</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="1" t="n">
         <v>0.19</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="1" t="n">
         <v>0.22</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="1" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="1" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="1" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="1" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="1" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="1" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="1" t="n">
         <v>0.23</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="1" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1200,598 +1190,598 @@
   </sheetPr>
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="1" t="n">
         <v>0.27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="1" t="n">
         <v>0.44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="1" t="n">
         <v>0.68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="1" t="n">
         <v>0.92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="1" t="n">
         <v>1.55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="1" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="1" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="1" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="1" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="1" t="n">
         <v>0.88</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="1" t="n">
         <v>1.3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="1" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="1" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="1" t="n">
         <v>0.26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="1" t="n">
         <v>0.44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="1" t="n">
         <v>0.68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="1" t="n">
         <v>1.04</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="1" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="1" t="n">
         <v>0.13</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="1" t="n">
         <v>0.19</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="1" t="n">
         <v>0.24</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="1" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="1" t="n">
         <v>0.52</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="1" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="1" t="n">
         <v>1.45</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="1" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="1" t="n">
         <v>0.21</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="1" t="n">
         <v>0.28</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="1" t="n">
         <v>0.42</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="1" t="n">
         <v>0.54</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="1" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="1" t="n">
         <v>1.08</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="1" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="1" t="n">
         <v>0.09</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="1" t="n">
         <v>0.13</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="1" t="n">
         <v>0.19</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="1" t="n">
         <v>0.28</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="1" t="n">
         <v>0.38</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="1" t="n">
         <v>0.56</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="1" t="n">
         <v>0.76</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="1" t="n">
         <v>0.92</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="1" t="n">
         <v>0.13</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="1" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="1" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="1" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="1" t="n">
         <v>0.48</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="1" t="n">
         <v>0.72</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="1" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="1" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="1" t="n">
         <v>0.26</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="1" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="1" t="n">
         <v>0.48</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="1" t="n">
         <v>0.68</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="1" t="n">
         <v>0.88</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="1" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="1" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="1" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="1" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="1" t="n">
         <v>0.72</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="1" t="n">
         <v>1.04</v>
       </c>
     </row>
@@ -1816,589 +1806,589 @@
   </sheetPr>
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
+      <selection pane="bottomLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="1" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="1" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="1" t="n">
         <v>0.48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="1" t="n">
         <v>0.72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="1" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="1" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="1" t="n">
         <v>0.26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="1" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="1" t="n">
         <v>0.48</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="1" t="n">
         <v>0.68</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="1" t="n">
         <v>0.88</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="1" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="1" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="1" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="1" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="1" t="n">
         <v>0.72</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="1" t="n">
         <v>1.04</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="1" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="1" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="1" t="n">
         <v>0.32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="1" t="n">
         <v>0.54</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="1" t="n">
         <v>0.88</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="1" t="n">
         <v>1.28</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="1" t="n">
         <v>1.92</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="1" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="1" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="1" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="1" t="n">
         <v>0.64</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="1" t="n">
         <v>0.88</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="1" t="n">
         <v>1.36</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="1" t="n">
         <v>0.12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="1" t="n">
         <v>0.18</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="1" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="1" t="n">
         <v>0.76</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="1" t="n">
         <v>1.16</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="1" t="n">
         <v>1.68</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="3" t="n">
+      <c r="B65" s="1" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="1" t="n">
         <v>0.11</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="3" t="n">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1" t="n">
         <v>0.12</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="3" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="3" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="3" t="n">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="1" t="n">
         <v>0.44</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="3" t="n">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="1" t="n">
         <v>0.68</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="3" t="n">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="3" t="n">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="3" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="3" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="3" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="3" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="3" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="3" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="3" t="n">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="3" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="3" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="3" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="3" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="3" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="3" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="3" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="1" t="n">
         <v>1.04</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="1" t="n">
         <v>1.5</v>
       </c>
     </row>
